--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,14 +663,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 47571-2025</t>
+          <t>A 61380-2023</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45931</v>
+        <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -683,39 +683,132 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Blå taggsvamp
+Gropticka
+Motaggsvamp
+Gullgröppa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 61380-2023 artfynd.xlsx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 61380-2023 karta.png", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 61380-2023 karta knärot.png", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 61380-2023 FSC-klagomål.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 61380-2023 FSC-klagomål mail.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 61380-2023 tillsynsbegäran.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 61380-2023 tillsynsbegäran mail.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 47571-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Långskägg
@@ -724,143 +817,50 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 47571-2025 artfynd.xlsx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 47571-2025 karta.png", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 47571-2025 karta knärot.png", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 47571-2025 FSC-klagomål.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 47571-2025 FSC-klagomål mail.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 47571-2025 tillsynsbegäran.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 47571-2025 tillsynsbegäran mail.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 47571-2025 prioriterade fågelarter.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 61380-2023</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45264</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Blå taggsvamp
-Gropticka
-Motaggsvamp
-Gullgröppa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 61380-2023 artfynd.xlsx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 61380-2023 karta.png", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 61380-2023 karta knärot.png", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 61380-2023 FSC-klagomål.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 61380-2023 FSC-klagomål mail.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 61380-2023 tillsynsbegäran.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 61380-2023 tillsynsbegäran mail.docx", "A 61380-2023")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 3573-2026</t>
+          <t>A 24616-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46042.69962962963</v>
+        <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,8 +872,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -882,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -897,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -906,138 +911,133 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24616-2022 artfynd.xlsx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24616-2022 karta.png", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24616-2022 karta knärot.png", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24616-2022 FSC-klagomål.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24616-2022 FSC-klagomål mail.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24616-2022 tillsynsbegäran.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24616-2022 tillsynsbegäran mail.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 24616-2022 prioriterade fågelarter.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 3573-2026</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>46042.69962962963</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vanlig groda
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 3573-2026 artfynd.xlsx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 3573-2026 karta.png", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 3573-2026 karta knärot.png", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 3573-2026 FSC-klagomål.docx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 3573-2026 FSC-klagomål mail.docx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 3573-2026 tillsynsbegäran.docx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 3573-2026 tillsynsbegäran mail.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 24616-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44727</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24616-2022 artfynd.xlsx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24616-2022 karta.png", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24616-2022 karta knärot.png", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24616-2022 FSC-klagomål.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24616-2022 FSC-klagomål mail.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24616-2022 tillsynsbegäran.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24616-2022 tillsynsbegäran mail.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 24616-2022 prioriterade fågelarter.docx", "A 24616-2022")</f>
         <v/>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,14 +1139,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 45407-2025</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45922</v>
+        <v>44316</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>11.6</v>
+        <v>16.8</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1193,45 +1193,49 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 7593-2025</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45705</v>
+        <v>45632</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1244,7 +1248,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1256,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1268,55 +1272,59 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Trollpipistrell</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 7593-2025 artfynd.xlsx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 7593-2025 karta.png", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 7593-2025 FSC-klagomål.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 7593-2025 FSC-klagomål mail.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 7593-2025 tillsynsbegäran.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 7593-2025 tillsynsbegäran mail.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 45407-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45632</v>
+        <v>45922</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1329,7 +1337,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>11.6</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1341,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,59 +1361,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45237</v>
+        <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1423,19 +1427,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1450,52 +1454,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 7593-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44316</v>
+        <v>45705</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1516,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>16.8</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1517,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1532,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1542,49 +1550,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Trollpipistrell</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 7593-2025 artfynd.xlsx", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 7593-2025 karta.png", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 7593-2025 FSC-klagomål.docx", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 7593-2025 FSC-klagomål mail.docx", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 7593-2025 tillsynsbegäran.docx", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 7593-2025 tillsynsbegäran mail.docx", "A 7593-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44727</v>
+        <v>45237</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1602,19 +1606,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1629,42 +1633,38 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,14 +1790,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45237</v>
+        <v>45182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,11 +1811,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1852,14 +1852,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45218</v>
+        <v>45176</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,11 +1873,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>45922.45137731481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>45902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2028,14 +2028,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45247</v>
+        <v>45237</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2090,14 +2090,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45544</v>
+        <v>45614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2147,14 +2147,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44894.425625</v>
+        <v>45632</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2204,14 +2204,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45632</v>
+        <v>44944</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2261,14 +2261,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 42955-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45614</v>
+        <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2280,8 +2280,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2318,14 +2323,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 41895-2023</t>
+          <t>A 42960-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45176</v>
+        <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2343,7 +2348,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2380,14 +2385,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45176</v>
+        <v>45237</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2401,11 +2406,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2442,14 +2447,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44645</v>
+        <v>45218</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2461,8 +2466,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2499,14 +2509,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 41895-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45182</v>
+        <v>45176</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2524,7 +2534,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2561,14 +2571,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 42955-2023</t>
+          <t>A 13354-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45182</v>
+        <v>44645</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,13 +2590,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2623,14 +2628,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42960-2023</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45182</v>
+        <v>45544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,13 +2647,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13354-2022</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44645</v>
+        <v>44894.425625</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45237</v>
+        <v>44645</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2761,13 +2761,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2804,14 +2799,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44944</v>
+        <v>45182</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2823,8 +2818,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2861,14 +2861,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45182</v>
+        <v>45247</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2882,11 +2882,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44316</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45632</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45922</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45705</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>45237</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>45182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>45176</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45922.45137731481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>45902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45237</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45632</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44944</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45237</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>45218</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>45176</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44645</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44894.425625</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44645</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>45182</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>45247</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44316</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45632</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45922</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45705</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>45237</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>45182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>45176</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45922.45137731481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>45902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45237</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45632</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44944</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45237</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>45218</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>45176</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44645</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44894.425625</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44645</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>45182</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>45247</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 24616-2022</t>
+          <t>A 3573-2026</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44727</v>
+        <v>46042.69962962963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,13 +872,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -887,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -902,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -911,133 +906,138 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Vanlig groda
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 3573-2026 artfynd.xlsx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 3573-2026 karta.png", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 3573-2026 karta knärot.png", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 3573-2026 FSC-klagomål.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 3573-2026 FSC-klagomål mail.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 3573-2026 tillsynsbegäran.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 3573-2026 tillsynsbegäran mail.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 24616-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24616-2022 artfynd.xlsx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24616-2022 karta.png", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24616-2022 karta knärot.png", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24616-2022 FSC-klagomål.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24616-2022 FSC-klagomål mail.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24616-2022 tillsynsbegäran.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24616-2022 tillsynsbegäran mail.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 24616-2022 prioriterade fågelarter.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 3573-2026</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46042.69962962963</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Vanlig groda
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 3573-2026 artfynd.xlsx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 3573-2026 karta.png", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 3573-2026 karta knärot.png", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 3573-2026 FSC-klagomål.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 3573-2026 FSC-klagomål mail.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 3573-2026 tillsynsbegäran.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 3573-2026 tillsynsbegäran mail.docx", "A 3573-2026")</f>
         <v/>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,14 +1139,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44316</v>
+        <v>45632</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16.8</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1186,56 +1186,56 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 45407-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45632</v>
+        <v>45922</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>11.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1272,59 +1272,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 45407-2025</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45922</v>
+        <v>45237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1336,17 +1332,22 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>11.6</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1361,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1371,45 +1372,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 7593-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44727</v>
+        <v>45705</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,13 +1422,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1439,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1451,59 +1447,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Trollpipistrell</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 7593-2025 artfynd.xlsx", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 7593-2025 karta.png", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 7593-2025 FSC-klagomål.docx", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 7593-2025 FSC-klagomål mail.docx", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 7593-2025 tillsynsbegäran.docx", "A 7593-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 7593-2025 tillsynsbegäran mail.docx", "A 7593-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 7593-2025</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45705</v>
+        <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1516,7 +1508,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>16.8</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1525,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1540,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1550,45 +1542,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Trollpipistrell</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 7593-2025 artfynd.xlsx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 7593-2025 karta.png", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 7593-2025 FSC-klagomål.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 7593-2025 FSC-klagomål mail.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 7593-2025 tillsynsbegäran.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 7593-2025 tillsynsbegäran mail.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45237</v>
+        <v>44727</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1606,19 +1602,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1633,38 +1629,42 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,14 +1790,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45182</v>
+        <v>45218</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1852,14 +1852,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45176</v>
+        <v>45247</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,11 +1873,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1914,14 +1914,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>45544</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,14 +1971,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45902</v>
+        <v>44894.425625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2028,14 +2028,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45237</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,13 +2047,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2090,14 +2085,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 41895-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45614</v>
+        <v>45176</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2109,8 +2104,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2147,14 +2147,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45632</v>
+        <v>45176</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2166,8 +2166,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2204,14 +2209,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44944</v>
+        <v>45902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2229,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8.699999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2261,14 +2266,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42955-2023</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45182</v>
+        <v>45237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2282,11 +2287,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2323,14 +2328,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 42960-2023</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45182</v>
+        <v>45632</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2342,13 +2347,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2385,14 +2385,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45237</v>
+        <v>45614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2404,13 +2404,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2447,14 +2442,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45218</v>
+        <v>44645</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,13 +2461,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2509,14 +2499,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 41895-2023</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45176</v>
+        <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2534,7 +2524,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2571,14 +2561,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 13354-2022</t>
+          <t>A 42955-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44645</v>
+        <v>45182</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2590,8 +2580,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2628,14 +2623,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 42960-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45544</v>
+        <v>45182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2647,8 +2642,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 13354-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44894.425625</v>
+        <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44645</v>
+        <v>45237</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2761,8 +2761,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2799,14 +2804,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45182</v>
+        <v>44944</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2818,13 +2823,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2861,14 +2861,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45247</v>
+        <v>45182</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2882,11 +2882,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 3573-2026</t>
+          <t>A 24616-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46042.69962962963</v>
+        <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,8 +872,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -882,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -897,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -906,138 +911,133 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24616-2022 artfynd.xlsx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24616-2022 karta.png", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24616-2022 karta knärot.png", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24616-2022 FSC-klagomål.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24616-2022 FSC-klagomål mail.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24616-2022 tillsynsbegäran.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24616-2022 tillsynsbegäran mail.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 24616-2022 prioriterade fågelarter.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 3573-2026</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>46042.69962962963</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vanlig groda
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 3573-2026 artfynd.xlsx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 3573-2026 karta.png", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 3573-2026 karta knärot.png", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 3573-2026 FSC-klagomål.docx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 3573-2026 FSC-klagomål mail.docx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 3573-2026 tillsynsbegäran.docx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 3573-2026 tillsynsbegäran mail.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 24616-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44727</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24616-2022 artfynd.xlsx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24616-2022 karta.png", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24616-2022 karta knärot.png", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24616-2022 FSC-klagomål.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24616-2022 FSC-klagomål mail.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24616-2022 tillsynsbegäran.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24616-2022 tillsynsbegäran mail.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 24616-2022 prioriterade fågelarter.docx", "A 24616-2022")</f>
         <v/>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,14 +1139,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45632</v>
+        <v>44316</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>16.8</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1186,56 +1186,56 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 45407-2025</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45922</v>
+        <v>45632</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11.6</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1272,55 +1272,59 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 45407-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45237</v>
+        <v>45922</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,22 +1336,17 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>11.6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1362,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1372,45 +1371,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7593-2025</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45705</v>
+        <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,8 +1421,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1435,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1447,55 +1451,59 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Trollpipistrell</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 7593-2025 artfynd.xlsx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 7593-2025 karta.png", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 7593-2025 FSC-klagomål.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 7593-2025 FSC-klagomål mail.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 7593-2025 tillsynsbegäran.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 7593-2025 tillsynsbegäran mail.docx", "A 7593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44316</v>
+        <v>45237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1507,11 +1515,16 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>16.8</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,49 +1555,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 16890-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44727</v>
+        <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,16 +1605,11 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1614,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1626,59 +1630,27 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 16890-2021</t>
+          <t>A 56835-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44295</v>
+        <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1690,8 +1662,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>18.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1728,14 +1705,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 56835-2021</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44481</v>
+        <v>45182</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1749,11 +1726,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>18.8</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1790,14 +1767,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45218</v>
+        <v>45247</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1815,7 +1792,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1852,14 +1829,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45247</v>
+        <v>45182</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,11 +1850,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1914,14 +1891,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45544</v>
+        <v>45176</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,8 +1910,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,14 +1953,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44894.425625</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1973,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2028,14 +2010,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>45902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2030,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2085,14 +2067,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 41895-2023</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45176</v>
+        <v>45237</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2106,11 +2088,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2147,14 +2129,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45176</v>
+        <v>45614</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2166,13 +2148,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2209,14 +2186,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45902</v>
+        <v>45632</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2229,7 +2206,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2266,14 +2243,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45237</v>
+        <v>44944</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2285,13 +2262,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2328,14 +2300,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 42955-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45632</v>
+        <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2347,8 +2319,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2385,14 +2362,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 42960-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45614</v>
+        <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2404,8 +2381,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2442,14 +2424,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44645</v>
+        <v>45237</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2461,8 +2443,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2499,14 +2486,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45182</v>
+        <v>45218</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2520,11 +2507,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2561,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 42955-2023</t>
+          <t>A 41895-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45182</v>
+        <v>45176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2586,7 +2573,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2623,14 +2610,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42960-2023</t>
+          <t>A 13354-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45182</v>
+        <v>44645</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,13 +2629,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2685,14 +2667,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13354-2022</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44645</v>
+        <v>45544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2705,7 +2687,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2742,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45237</v>
+        <v>44894.425625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2761,13 +2743,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2801,17 +2778,17 @@
       </c>
       <c r="R32" s="2" t="inlineStr"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44944</v>
+        <v>44645</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2801,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2857,68 +2834,6 @@
         <v>0</v>
       </c>
       <c r="R33" s="2" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>A 42957-2023</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,14 +1139,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44316</v>
+        <v>44727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1158,8 +1158,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>16.8</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1168,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1186,56 +1191,56 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45632</v>
+        <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,20 +1252,25 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1275,56 +1285,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 45407-2025</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45922</v>
+        <v>45632</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,7 +1343,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.6</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1349,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1361,55 +1367,59 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44727</v>
+        <v>44316</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,13 +1431,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>16.8</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1436,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1454,56 +1459,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 45407-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45237</v>
+        <v>45922</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,22 +1520,17 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>11.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1555,31 +1555,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45182</v>
+        <v>45218</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1726,11 +1726,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>45247</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45182</v>
+        <v>45544</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1848,13 +1848,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,14 +1886,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45176</v>
+        <v>45632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1910,13 +1905,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1953,14 +1943,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>45614</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1963,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2010,14 +2000,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45902</v>
+        <v>44894.425625</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2020,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2074,7 +2064,7 @@
         <v>45237</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,14 +2119,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45614</v>
+        <v>44645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2149,7 +2139,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2186,14 +2176,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45632</v>
+        <v>44944</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2206,7 +2196,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2243,14 +2233,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44944</v>
+        <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2262,8 +2252,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2307,7 +2302,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2364,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2424,14 +2419,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 41895-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45237</v>
+        <v>45176</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2445,11 +2440,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2486,14 +2481,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45218</v>
+        <v>45176</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,11 +2502,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2548,14 +2543,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41895-2023</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45176</v>
+        <v>45237</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2569,11 +2564,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2610,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 13354-2022</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44645</v>
+        <v>45182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2629,8 +2624,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2667,14 +2667,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 13354-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45544</v>
+        <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2724,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44894.425625</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44645</v>
+        <v>45902</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,14 +663,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 61380-2023</t>
+          <t>A 47571-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45264</v>
+        <v>45931</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -683,39 +683,136 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Långskägg
+Motaggsvamp
+Kungsfågel
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 47571-2025 artfynd.xlsx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 47571-2025 karta.png", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 47571-2025 karta knärot.png", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 47571-2025 FSC-klagomål.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 47571-2025 FSC-klagomål mail.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 47571-2025 tillsynsbegäran.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 47571-2025 tillsynsbegäran mail.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 47571-2025 prioriterade fågelarter.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 61380-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blå taggsvamp
@@ -724,129 +821,32 @@
 Gullgröppa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 61380-2023 artfynd.xlsx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 61380-2023 karta.png", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 61380-2023 karta knärot.png", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 61380-2023 FSC-klagomål.docx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 61380-2023 FSC-klagomål mail.docx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 61380-2023 tillsynsbegäran.docx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 61380-2023 tillsynsbegäran mail.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 47571-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Långskägg
-Motaggsvamp
-Kungsfågel
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 47571-2025 artfynd.xlsx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 47571-2025 karta.png", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 47571-2025 karta knärot.png", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 47571-2025 FSC-klagomål.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 47571-2025 FSC-klagomål mail.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 47571-2025 tillsynsbegäran.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 47571-2025 tillsynsbegäran mail.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 47571-2025 prioriterade fågelarter.docx", "A 47571-2025")</f>
         <v/>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,14 +1139,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44727</v>
+        <v>44316</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1158,13 +1158,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>16.8</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1173,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1191,56 +1186,56 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45237</v>
+        <v>45632</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1252,25 +1247,20 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1285,52 +1275,56 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45632</v>
+        <v>44727</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,8 +1336,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1381,45 +1380,45 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 45407-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44316</v>
+        <v>45922</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1431,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>16.8</v>
+        <v>11.6</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1441,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1456,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1466,49 +1465,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 45407-2025</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45922</v>
+        <v>45237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,17 +1515,22 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>11.6</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1555,31 +1555,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45218</v>
+        <v>45182</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1767,14 +1767,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45247</v>
+        <v>45176</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,11 +1788,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1829,14 +1829,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45544</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1886,14 +1886,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45632</v>
+        <v>45237</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1905,8 +1905,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1943,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45614</v>
+        <v>45902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1963,7 +1968,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2000,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44894.425625</v>
+        <v>45614</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2025,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2057,14 +2062,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45237</v>
+        <v>45632</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2076,13 +2081,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44645</v>
+        <v>44944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 42955-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44944</v>
+        <v>45182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2195,8 +2195,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>8.699999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2233,14 +2238,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 42960-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2263,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2295,14 +2300,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 42955-2023</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45182</v>
+        <v>45237</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2316,11 +2321,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2357,14 +2362,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42960-2023</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45182</v>
+        <v>45218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,11 +2383,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2426,7 +2431,7 @@
         <v>45176</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2481,14 +2486,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 13354-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45176</v>
+        <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2500,13 +2505,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2543,14 +2543,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45237</v>
+        <v>45544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2562,13 +2562,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2600,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45182</v>
+        <v>44894.425625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,13 +2619,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2667,14 +2657,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13354-2022</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2677,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2724,14 +2714,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>45182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2743,8 +2733,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2776,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45902</v>
+        <v>45247</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2800,8 +2795,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,14 +663,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 47571-2025</t>
+          <t>A 61380-2023</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45931</v>
+        <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -683,39 +683,132 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Blå taggsvamp
+Gropticka
+Motaggsvamp
+Gullgröppa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 61380-2023 artfynd.xlsx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 61380-2023 karta.png", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 61380-2023 karta knärot.png", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 61380-2023 FSC-klagomål.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 61380-2023 FSC-klagomål mail.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 61380-2023 tillsynsbegäran.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 61380-2023 tillsynsbegäran mail.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 47571-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Långskägg
@@ -724,129 +817,36 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 47571-2025 artfynd.xlsx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 47571-2025 karta.png", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 47571-2025 karta knärot.png", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 47571-2025 FSC-klagomål.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 47571-2025 FSC-klagomål mail.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 47571-2025 tillsynsbegäran.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 47571-2025 tillsynsbegäran mail.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 47571-2025 prioriterade fågelarter.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 61380-2023</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45264</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Blå taggsvamp
-Gropticka
-Motaggsvamp
-Gullgröppa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 61380-2023 artfynd.xlsx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 61380-2023 karta.png", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 61380-2023 karta knärot.png", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 61380-2023 FSC-klagomål.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 61380-2023 FSC-klagomål mail.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 61380-2023 tillsynsbegäran.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 61380-2023 tillsynsbegäran mail.docx", "A 61380-2023")</f>
         <v/>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,14 +1044,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 53276-2023</t>
+          <t>A 45407-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45229</v>
+        <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1063,13 +1063,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>0.3</v>
+        <v>11.6</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -1078,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1103,139 +1098,145 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Havsörn
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 45407-2025 prioriterade fågelarter.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 53276-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Mindre flugsnappare
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 53276-2023 artfynd.xlsx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 53276-2023 karta.png", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 53276-2023 FSC-klagomål.docx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 53276-2023 FSC-klagomål mail.docx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 53276-2023 tillsynsbegäran.docx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 53276-2023 tillsynsbegäran mail.docx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 53276-2023 prioriterade fågelarter.docx", "A 53276-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 20755-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44316</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45632</v>
+        <v>44316</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1249,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>16.8</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1257,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1275,56 +1276,56 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44727</v>
+        <v>45632</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1336,13 +1337,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1380,45 +1376,45 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 45407-2025</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45922</v>
+        <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,8 +1426,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>11.6</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1443,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1455,41 +1456,45 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
@@ -1503,7 +1508,7 @@
         <v>45237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1717,7 @@
         <v>45182</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1774,7 +1779,7 @@
         <v>45176</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1841,7 @@
         <v>45922.45137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1886,14 +1891,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45237</v>
+        <v>45902</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1905,13 +1910,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45902</v>
+        <v>45237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1967,8 +1967,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2012,7 +2017,7 @@
         <v>45614</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2074,7 @@
         <v>45632</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2131,7 @@
         <v>44944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2188,7 @@
         <v>45182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2250,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2312,7 @@
         <v>45237</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2374,7 @@
         <v>45218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2436,7 @@
         <v>45176</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2498,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2550,7 +2555,7 @@
         <v>45544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2607,7 +2612,7 @@
         <v>44894.425625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2664,7 +2669,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2721,7 +2726,7 @@
         <v>45182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2783,7 +2788,7 @@
         <v>45247</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>44316</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45632</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45182</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45176</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45922.45137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45902</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>45614</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>45632</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>45182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45237</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45176</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>45544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44894.425625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>45182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45247</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,14 +663,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 61380-2023</t>
+          <t>A 47571-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45264</v>
+        <v>45931</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -683,39 +683,136 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Långskägg
+Motaggsvamp
+Kungsfågel
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 47571-2025 artfynd.xlsx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 47571-2025 karta.png", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 47571-2025 karta knärot.png", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 47571-2025 FSC-klagomål.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 47571-2025 FSC-klagomål mail.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 47571-2025 tillsynsbegäran.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 47571-2025 tillsynsbegäran mail.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 47571-2025 prioriterade fågelarter.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 61380-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blå taggsvamp
@@ -724,143 +821,46 @@
 Gullgröppa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 61380-2023 artfynd.xlsx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 61380-2023 karta.png", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 61380-2023 karta knärot.png", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 61380-2023 FSC-klagomål.docx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 61380-2023 FSC-klagomål mail.docx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 61380-2023 tillsynsbegäran.docx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 61380-2023 tillsynsbegäran mail.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 47571-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Långskägg
-Motaggsvamp
-Kungsfågel
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 47571-2025 artfynd.xlsx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 47571-2025 karta.png", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 47571-2025 karta knärot.png", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 47571-2025 FSC-klagomål.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 47571-2025 FSC-klagomål mail.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 47571-2025 tillsynsbegäran.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 47571-2025 tillsynsbegäran mail.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 47571-2025 prioriterade fågelarter.docx", "A 47571-2025")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 24616-2022</t>
+          <t>A 3573-2026</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44727</v>
+        <v>46042.69962962963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,13 +872,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -887,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -902,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -911,133 +906,138 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Vanlig groda
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 3573-2026 artfynd.xlsx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 3573-2026 karta.png", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 3573-2026 karta knärot.png", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 3573-2026 FSC-klagomål.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 3573-2026 FSC-klagomål mail.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 3573-2026 tillsynsbegäran.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 3573-2026 tillsynsbegäran mail.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 24616-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24616-2022 artfynd.xlsx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24616-2022 karta.png", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24616-2022 karta knärot.png", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24616-2022 FSC-klagomål.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24616-2022 FSC-klagomål mail.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24616-2022 tillsynsbegäran.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24616-2022 tillsynsbegäran mail.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 24616-2022 prioriterade fågelarter.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 3573-2026</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46042.69962962963</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Vanlig groda
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 3573-2026 artfynd.xlsx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 3573-2026 karta.png", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 3573-2026 karta knärot.png", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 3573-2026 FSC-klagomål.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 3573-2026 FSC-klagomål mail.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 3573-2026 tillsynsbegäran.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 3573-2026 tillsynsbegäran mail.docx", "A 3573-2026")</f>
         <v/>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,14 +1229,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44316</v>
+        <v>45632</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>16.8</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1276,56 +1276,56 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45632</v>
+        <v>45237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,20 +1337,25 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1365,56 +1370,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44727</v>
+        <v>44316</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,13 +1427,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>16.8</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1441,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1459,56 +1455,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45237</v>
+        <v>44727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,19 +1522,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1553,38 +1549,42 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,14 +1710,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45182</v>
+        <v>45218</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1772,14 +1772,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45176</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1791,13 +1791,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1834,14 +1829,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>45902</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1849,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,14 +1886,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45902</v>
+        <v>45247</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1910,8 +1905,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45237</v>
+        <v>45544</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1967,13 +1967,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2010,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45614</v>
+        <v>44894.425625</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2025,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2067,14 +2062,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 41895-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45632</v>
+        <v>45176</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2086,8 +2081,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2124,14 +2124,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44944</v>
+        <v>45176</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2143,8 +2143,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2181,14 +2186,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42955-2023</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45182</v>
+        <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2202,11 +2207,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2243,14 +2248,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42960-2023</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45182</v>
+        <v>45632</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2262,13 +2267,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45237</v>
+        <v>45614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2324,13 +2324,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2367,14 +2362,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45218</v>
+        <v>44645</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2386,13 +2381,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2429,14 +2419,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 41895-2023</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45176</v>
+        <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2444,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2491,14 +2481,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 13354-2022</t>
+          <t>A 42955-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44645</v>
+        <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,8 +2500,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2548,14 +2543,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 42960-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45544</v>
+        <v>45182</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,8 +2562,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 13354-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44894.425625</v>
+        <v>44645</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2662,14 +2662,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44645</v>
+        <v>45237</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,8 +2681,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2719,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45182</v>
+        <v>44944</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,13 +2743,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45247</v>
+        <v>45182</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2802,11 +2802,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,14 +663,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 47571-2025</t>
+          <t>A 61380-2023</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45931</v>
+        <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -683,39 +683,132 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Blå taggsvamp
+Gropticka
+Motaggsvamp
+Gullgröppa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 61380-2023 artfynd.xlsx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 61380-2023 karta.png", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 61380-2023 karta knärot.png", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 61380-2023 FSC-klagomål.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 61380-2023 FSC-klagomål mail.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 61380-2023 tillsynsbegäran.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 61380-2023 tillsynsbegäran mail.docx", "A 61380-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 47571-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Långskägg
@@ -724,143 +817,50 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 47571-2025 artfynd.xlsx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 47571-2025 karta.png", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 47571-2025 karta knärot.png", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 47571-2025 FSC-klagomål.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 47571-2025 FSC-klagomål mail.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 47571-2025 tillsynsbegäran.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 47571-2025 tillsynsbegäran mail.docx", "A 47571-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 47571-2025 prioriterade fågelarter.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 61380-2023</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45264</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Blå taggsvamp
-Gropticka
-Motaggsvamp
-Gullgröppa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 61380-2023 artfynd.xlsx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 61380-2023 karta.png", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 61380-2023 karta knärot.png", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 61380-2023 FSC-klagomål.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 61380-2023 FSC-klagomål mail.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 61380-2023 tillsynsbegäran.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 61380-2023 tillsynsbegäran mail.docx", "A 61380-2023")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 3573-2026</t>
+          <t>A 24616-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46042.69962962963</v>
+        <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,8 +872,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -882,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -897,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -906,138 +911,133 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24616-2022 artfynd.xlsx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24616-2022 karta.png", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24616-2022 karta knärot.png", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24616-2022 FSC-klagomål.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24616-2022 FSC-klagomål mail.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24616-2022 tillsynsbegäran.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24616-2022 tillsynsbegäran mail.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 24616-2022 prioriterade fågelarter.docx", "A 24616-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 3573-2026</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>46042.69962962963</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vanlig groda
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 3573-2026 artfynd.xlsx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 3573-2026 karta.png", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 3573-2026 karta knärot.png", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 3573-2026 FSC-klagomål.docx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 3573-2026 FSC-klagomål mail.docx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 3573-2026 tillsynsbegäran.docx", "A 3573-2026")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 3573-2026 tillsynsbegäran mail.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 24616-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44727</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24616-2022 artfynd.xlsx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24616-2022 karta.png", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24616-2022 karta knärot.png", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24616-2022 FSC-klagomål.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24616-2022 FSC-klagomål mail.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24616-2022 tillsynsbegäran.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24616-2022 tillsynsbegäran mail.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 24616-2022 prioriterade fågelarter.docx", "A 24616-2022")</f>
         <v/>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,14 +1229,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45632</v>
+        <v>44316</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>16.8</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1276,56 +1276,56 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45237</v>
+        <v>45632</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,25 +1337,20 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,52 +1365,56 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44316</v>
+        <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,8 +1426,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>16.8</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1437,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1455,56 +1459,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44727</v>
+        <v>45237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,19 +1526,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1549,42 +1553,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,14 +1710,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45218</v>
+        <v>45182</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1772,14 +1772,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>45176</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1791,8 +1791,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1829,14 +1834,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45902</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1849,7 +1854,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1886,14 +1891,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45247</v>
+        <v>45902</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1905,13 +1910,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45544</v>
+        <v>45237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1967,8 +1967,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2005,14 +2010,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44894.425625</v>
+        <v>45614</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2030,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2062,14 +2067,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 41895-2023</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45176</v>
+        <v>45632</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2081,13 +2086,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2124,14 +2124,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45176</v>
+        <v>44944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2143,13 +2143,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2186,14 +2181,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 42955-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45237</v>
+        <v>45182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,11 +2202,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2248,14 +2243,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 42960-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45632</v>
+        <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2267,8 +2262,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45614</v>
+        <v>45237</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2324,8 +2324,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2362,14 +2367,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44645</v>
+        <v>45218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2381,8 +2386,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2419,14 +2429,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 41895-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45182</v>
+        <v>45176</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2444,7 +2454,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2481,14 +2491,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 42955-2023</t>
+          <t>A 13354-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45182</v>
+        <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2500,13 +2510,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2543,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 42960-2023</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45182</v>
+        <v>45544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2562,13 +2567,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 13354-2022</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44645</v>
+        <v>44894.425625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2662,14 +2662,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45237</v>
+        <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,13 +2681,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2724,14 +2719,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44944</v>
+        <v>45182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2743,8 +2738,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45182</v>
+        <v>45247</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2802,11 +2802,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>44316</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45632</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45182</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45176</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45922.45137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45902</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>45614</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>45632</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>45182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45237</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45176</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>45544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44894.425625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>45182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45247</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>44316</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45632</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45182</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45176</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45922.45137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45902</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>45614</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>45632</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>45182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45237</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45176</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>45544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44894.425625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>45182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45247</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,14 +1229,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44316</v>
+        <v>45632</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>16.8</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1276,56 +1276,56 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45632</v>
+        <v>45237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,20 +1337,25 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1365,56 +1370,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44727</v>
+        <v>44316</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,13 +1427,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>16.8</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1441,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1459,56 +1455,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45237</v>
+        <v>44727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,19 +1522,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1553,38 +1549,42 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,14 +1710,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45182</v>
+        <v>44894.425625</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1729,13 +1729,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1772,14 +1767,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45176</v>
+        <v>45218</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,11 +1788,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1834,14 +1829,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>45247</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1853,8 +1848,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,14 +1891,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45902</v>
+        <v>45544</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>45237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2010,14 +2010,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 41895-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45614</v>
+        <v>45176</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2029,8 +2029,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2067,14 +2072,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45632</v>
+        <v>45176</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2086,8 +2091,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2124,14 +2134,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44944</v>
+        <v>45632</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2154,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2181,14 +2191,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42955-2023</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45182</v>
+        <v>45614</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2200,13 +2210,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2243,14 +2248,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42960-2023</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45182</v>
+        <v>44645</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2262,13 +2267,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45237</v>
+        <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,11 +2326,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2367,14 +2367,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 42955-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45218</v>
+        <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2388,11 +2388,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2429,14 +2429,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 41895-2023</t>
+          <t>A 42960-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45176</v>
+        <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45544</v>
+        <v>45237</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,8 +2567,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2610,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44894.425625</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2630,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2662,14 +2667,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44645</v>
+        <v>44944</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2687,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2719,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45182</v>
+        <v>45902</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,13 +2743,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45247</v>
+        <v>45182</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2802,11 +2802,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,14 +1229,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45632</v>
+        <v>44316</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>16.8</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1276,56 +1276,56 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45237</v>
+        <v>45632</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,25 +1337,20 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,52 +1365,56 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44316</v>
+        <v>44727</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,8 +1426,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>16.8</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1437,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1455,56 +1459,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44727</v>
+        <v>45237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,19 +1526,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1549,42 +1553,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,14 +1710,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44894.425625</v>
+        <v>45182</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1729,8 +1729,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1767,14 +1772,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45218</v>
+        <v>45176</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,11 +1793,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1829,14 +1834,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45247</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1848,13 +1853,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,14 +1891,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45544</v>
+        <v>45902</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>45237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2010,14 +2010,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41895-2023</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45176</v>
+        <v>45614</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2029,13 +2029,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2072,14 +2067,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45176</v>
+        <v>45632</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2091,13 +2086,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2134,14 +2124,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45632</v>
+        <v>44944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2154,7 +2144,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2191,14 +2181,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 42955-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45614</v>
+        <v>45182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2210,8 +2200,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2248,14 +2243,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 42960-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44645</v>
+        <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2267,8 +2262,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45182</v>
+        <v>45237</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,11 +2326,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2367,14 +2367,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42955-2023</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45182</v>
+        <v>45218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2388,11 +2388,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2429,14 +2429,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 42960-2023</t>
+          <t>A 41895-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45182</v>
+        <v>45176</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45237</v>
+        <v>45544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,13 +2567,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2610,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>44894.425625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2625,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2667,14 +2662,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44944</v>
+        <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2682,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>8.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2724,14 +2719,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45902</v>
+        <v>45182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2743,8 +2738,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45182</v>
+        <v>45247</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2802,11 +2802,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45264</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45931</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,14 +1044,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 45407-2025</t>
+          <t>A 53276-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45922</v>
+        <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1063,8 +1063,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>11.6</v>
+        <v>0.3</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -1073,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1088,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1098,145 +1103,140 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Mindre flugsnappare
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 53276-2023 artfynd.xlsx", "A 53276-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 53276-2023 karta.png", "A 53276-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 53276-2023 FSC-klagomål.docx", "A 53276-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 53276-2023 FSC-klagomål mail.docx", "A 53276-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 53276-2023 tillsynsbegäran.docx", "A 53276-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 53276-2023 tillsynsbegäran mail.docx", "A 53276-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 53276-2023 prioriterade fågelarter.docx", "A 53276-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 45407-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45922</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Havsörn
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 45407-2025 prioriterade fågelarter.docx", "A 45407-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 53276-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Mindre flugsnappare
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 53276-2023 artfynd.xlsx", "A 53276-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 53276-2023 karta.png", "A 53276-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 53276-2023 FSC-klagomål.docx", "A 53276-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 53276-2023 FSC-klagomål mail.docx", "A 53276-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 53276-2023 tillsynsbegäran.docx", "A 53276-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 53276-2023 tillsynsbegäran mail.docx", "A 53276-2023")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 53276-2023 prioriterade fågelarter.docx", "A 53276-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44316</v>
+        <v>44727</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,8 +1248,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>16.8</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1258,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1276,42 +1281,42 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
@@ -1325,7 +1330,7 @@
         <v>45632</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,14 +1412,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44727</v>
+        <v>45237</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,19 +1437,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1459,56 +1464,52 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45237</v>
+        <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,16 +1521,11 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>16.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1560,31 +1556,35 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,14 +1710,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45182</v>
+        <v>45247</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,11 +1731,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1772,14 +1772,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 41899-2023</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45176</v>
+        <v>45544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1791,13 +1791,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1834,14 +1829,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>44944</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1849,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,14 +1886,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45902</v>
+        <v>45218</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1910,8 +1905,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45237</v>
+        <v>44894.425625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1967,13 +1967,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2010,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 53369-2024</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45614</v>
+        <v>45182</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2029,8 +2024,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2067,14 +2067,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 58383-2024</t>
+          <t>A 41895-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45632</v>
+        <v>45176</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2086,8 +2086,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2124,14 +2129,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 41899-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44944</v>
+        <v>45176</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2143,8 +2148,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2181,14 +2191,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42955-2023</t>
+          <t>A 55069-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45182</v>
+        <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2202,11 +2212,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2243,14 +2253,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42960-2023</t>
+          <t>A 58383-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45182</v>
+        <v>45632</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2262,13 +2272,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2305,14 +2310,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 55069-2023</t>
+          <t>A 53369-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45237</v>
+        <v>45614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2324,13 +2329,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2367,14 +2367,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 13356-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45218</v>
+        <v>44645</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2386,13 +2386,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2429,14 +2424,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 41895-2023</t>
+          <t>A 42951-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45176</v>
+        <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2449,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2491,14 +2486,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 13354-2022</t>
+          <t>A 42955-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44645</v>
+        <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,8 +2505,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 42960-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45544</v>
+        <v>45182</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,8 +2567,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2610,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44894.425625</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2630,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2662,14 +2667,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13356-2022</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44645</v>
+        <v>45902</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2687,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2719,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 42951-2023</t>
+          <t>A 13354-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45182</v>
+        <v>44645</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,13 +2743,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45247</v>
+        <v>45237</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,14 +663,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 61380-2023</t>
+          <t>A 47571-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45264</v>
+        <v>45931</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -683,39 +683,136 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Långskägg
+Motaggsvamp
+Kungsfågel
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 47571-2025 artfynd.xlsx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 47571-2025 karta.png", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 47571-2025 karta knärot.png", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 47571-2025 FSC-klagomål.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 47571-2025 FSC-klagomål mail.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 47571-2025 tillsynsbegäran.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 47571-2025 tillsynsbegäran mail.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 47571-2025 prioriterade fågelarter.docx", "A 47571-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 61380-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blå taggsvamp
@@ -724,143 +821,46 @@
 Gullgröppa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 61380-2023 artfynd.xlsx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 61380-2023 karta.png", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 61380-2023 karta knärot.png", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 61380-2023 FSC-klagomål.docx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 61380-2023 FSC-klagomål mail.docx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 61380-2023 tillsynsbegäran.docx", "A 61380-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 61380-2023 tillsynsbegäran mail.docx", "A 61380-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 47571-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Långskägg
-Motaggsvamp
-Kungsfågel
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 47571-2025 artfynd.xlsx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 47571-2025 karta.png", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 47571-2025 karta knärot.png", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 47571-2025 FSC-klagomål.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 47571-2025 FSC-klagomål mail.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 47571-2025 tillsynsbegäran.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 47571-2025 tillsynsbegäran mail.docx", "A 47571-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 47571-2025 prioriterade fågelarter.docx", "A 47571-2025")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 24616-2022</t>
+          <t>A 3573-2026</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44727</v>
+        <v>46042.69962962963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,13 +872,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -887,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -902,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -911,147 +906,152 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Vanlig groda
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 3573-2026 artfynd.xlsx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 3573-2026 karta.png", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 3573-2026 karta knärot.png", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 3573-2026 FSC-klagomål.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 3573-2026 FSC-klagomål mail.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 3573-2026 tillsynsbegäran.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 3573-2026 tillsynsbegäran mail.docx", "A 3573-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 24616-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24616-2022 artfynd.xlsx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24616-2022 karta.png", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24616-2022 karta knärot.png", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24616-2022 FSC-klagomål.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24616-2022 FSC-klagomål mail.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24616-2022 tillsynsbegäran.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24616-2022 tillsynsbegäran mail.docx", "A 24616-2022")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 24616-2022 prioriterade fågelarter.docx", "A 24616-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 3573-2026</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46042.69962962963</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Vanlig groda
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 3573-2026 artfynd.xlsx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 3573-2026 karta.png", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 3573-2026 karta knärot.png", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 3573-2026 FSC-klagomål.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 3573-2026 FSC-klagomål mail.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 3573-2026 tillsynsbegäran.docx", "A 3573-2026")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 3573-2026 tillsynsbegäran mail.docx", "A 3573-2026")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 53276-2023</t>
+          <t>A 45407-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45229</v>
+        <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1063,13 +1063,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>0.3</v>
+        <v>11.6</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -1078,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1103,140 +1098,145 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Havsörn
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 45407-2025 prioriterade fågelarter.docx", "A 45407-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 53276-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Mindre flugsnappare
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 53276-2023 artfynd.xlsx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 53276-2023 karta.png", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 53276-2023 FSC-klagomål.docx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 53276-2023 FSC-klagomål mail.docx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 53276-2023 tillsynsbegäran.docx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 53276-2023 tillsynsbegäran mail.docx", "A 53276-2023")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 53276-2023 prioriterade fågelarter.docx", "A 53276-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 45407-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45922</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HAMMARÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 45407-2025 artfynd.xlsx", "A 45407-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 45407-2025 karta.png", "A 45407-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 45407-2025 FSC-klagomål.docx", "A 45407-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 45407-2025 FSC-klagomål mail.docx", "A 45407-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 45407-2025 tillsynsbegäran.docx", "A 45407-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 45407-2025 tillsynsbegäran mail.docx", "A 45407-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 45407-2025 prioriterade fågelarter.docx", "A 45407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 24618-2022</t>
+          <t>A 58382-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44727</v>
+        <v>45632</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,13 +1248,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1292,45 +1287,45 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 58382-2024</t>
+          <t>A 55068-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45632</v>
+        <v>45237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,20 +1337,25 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,56 +1370,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 58382-2024 artfynd.xlsx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 58382-2024 karta.png", "A 58382-2024")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 58382-2024 karta knärot.png", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 58382-2024 FSC-klagomål.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 58382-2024 FSC-klagomål mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 58382-2024 tillsynsbegäran.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 58382-2024 tillsynsbegäran mail.docx", "A 58382-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 55068-2023</t>
+          <t>A 20755-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45237</v>
+        <v>44316</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,16 +1427,11 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>16.8</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1471,45 +1462,49 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 55068-2023 artfynd.xlsx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 55068-2023 karta.png", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 55068-2023 FSC-klagomål.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 55068-2023 FSC-klagomål mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 55068-2023 tillsynsbegäran.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 55068-2023 tillsynsbegäran mail.docx", "A 55068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 20755-2021</t>
+          <t>A 24618-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44316</v>
+        <v>44727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,8 +1516,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>16.8</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1549,42 +1549,42 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 20755-2021 artfynd.xlsx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/artfynd/A 24618-2022 artfynd.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 20755-2021 karta.png", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/kartor/A 24618-2022 karta.png", "A 24618-2022")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/knärot/A 24618-2022 karta knärot.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 20755-2021 FSC-klagomål.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomål/A 24618-2022 FSC-klagomål.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 20755-2021 FSC-klagomål mail.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/klagomålsmail/A 24618-2022 FSC-klagomål mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 20755-2021 tillsynsbegäran.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsyn/A 24618-2022 tillsynsbegäran.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 20755-2021 tillsynsbegäran mail.docx", "A 20755-2021")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1761/fåglar/A 20755-2021 prioriterade fågelarter.docx", "A 20755-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1761/tillsynsmail/A 24618-2022 tillsynsbegäran mail.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,14 +1710,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 57893-2023</t>
+          <t>A 51008-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45247</v>
+        <v>45218</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1772,14 +1772,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37934-2024</t>
+          <t>A 57893-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45544</v>
+        <v>45247</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1791,8 +1791,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1829,14 +1834,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2769-2023</t>
+          <t>A 37934-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44944</v>
+        <v>45544</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1849,7 +1854,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.699999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1886,14 +1891,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 51008-2023</t>
+          <t>A 56799-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45218</v>
+        <v>44894.425625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1905,13 +1910,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 56799-2022</t>
+          <t>A 45423-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44894.425625</v>
+        <v>45922.45137731481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2005,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 42957-2023</t>
+          <t>A 41661-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45182</v>
+        <v>45902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2024,13 +2024,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2074,7 +2069,7 @@
         <v>45176</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2136,7 +2131,7 @@
         <v>45176</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2198,7 +2193,7 @@
         <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2260,7 +2255,7 @@
         <v>45632</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2317,7 +2312,7 @@
         <v>45614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2374,7 +2369,7 @@
         <v>44645</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2426,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2488,7 @@
         <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,7 +2550,7 @@
         <v>45182</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2610,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 45423-2025</t>
+          <t>A 13354-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45922.45137731481</v>
+        <v>44645</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2667,14 +2662,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 41661-2025</t>
+          <t>A 55066-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45902</v>
+        <v>45237</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2686,8 +2681,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2724,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 13354-2022</t>
+          <t>A 2769-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44645</v>
+        <v>44944</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55066-2023</t>
+          <t>A 42957-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45237</v>
+        <v>45182</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2802,11 +2802,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45931</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>45264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>46042.69962962963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>45632</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44316</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>44727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45218</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45247</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45544</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44894.425625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45922.45137731481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45176</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>45176</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45632</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44645</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>45182</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44645</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45237</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44944</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45182</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
